--- a/corpora_italiani.xlsx
+++ b/corpora_italiani.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elke\Desktop\Uni\Master\Masterarbeit\corpora_italiani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A189EE-5E4D-401A-9C60-7D17909AE31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6DDE33-D9B1-4119-B1FA-7D68DC56D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
   <si>
     <t>TLIO</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Corpus of the Italian Web 2016</t>
   </si>
   <si>
-    <t>TenTen, Sketch Engine</t>
-  </si>
-  <si>
     <t>JSI Timestamped Italian corpus </t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>https://www.sketchengine.eu/timestamped-italian-corpus/</t>
   </si>
   <si>
-    <t>Jozef Stefan Institute, Slovenia</t>
-  </si>
-  <si>
     <t>Gutenberg</t>
   </si>
   <si>
@@ -384,15 +378,9 @@
     <t>xml</t>
   </si>
   <si>
-    <t>txt, csv, xlsx, xml</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
-    <t>csv, json</t>
-  </si>
-  <si>
     <t xml:space="preserve">txt </t>
   </si>
   <si>
@@ -402,15 +390,6 @@
     <t>zip</t>
   </si>
   <si>
-    <t>txt, xml</t>
-  </si>
-  <si>
-    <t>txt, xml, html, xls</t>
-  </si>
-  <si>
-    <t>CoNLL, MultiTag</t>
-  </si>
-  <si>
     <t>gz</t>
   </si>
   <si>
@@ -471,9 +450,6 @@
     <t>dialogo</t>
   </si>
   <si>
-    <t>giornale, Web</t>
-  </si>
-  <si>
     <t xml:space="preserve">3218 testi </t>
   </si>
   <si>
@@ -603,45 +579,15 @@
     <t>forma</t>
   </si>
   <si>
-    <t>forma, lemma, POS</t>
-  </si>
-  <si>
     <t>parte dell'OVI</t>
   </si>
   <si>
     <t>generi letterari</t>
   </si>
   <si>
-    <t>giornale, prosa giuridico, saggistica, narrativa, altri</t>
-  </si>
-  <si>
     <t>vari</t>
   </si>
   <si>
-    <t>trascrizione, audio</t>
-  </si>
-  <si>
-    <t>Firenze, Milano, Roma, Napoli (5 tipi di situazione)</t>
-  </si>
-  <si>
-    <t>spontaneo, suscitato (italiano, spagnolo, inglese)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed-typical, News, Web, Wikipedia </t>
-  </si>
-  <si>
-    <t>categorie (musica, sport, letteratura…)</t>
-  </si>
-  <si>
-    <t>parlato, scritto</t>
-  </si>
-  <si>
-    <t>giuridico, personale, poesia, prosa, saggistica, teatro</t>
-  </si>
-  <si>
-    <t>Universität Würzburg, CLiGS</t>
-  </si>
-  <si>
     <t>abbrev.</t>
   </si>
   <si>
@@ -652,6 +598,63 @@
   </si>
   <si>
     <t>Corpus Dinamico dell'Italiano Scritto</t>
+  </si>
+  <si>
+    <t>forma/lemma/POS</t>
+  </si>
+  <si>
+    <t>txt/csv/xlsx/xml</t>
+  </si>
+  <si>
+    <t>giuridico/personale/poesia/prosa/saggistica/teatro</t>
+  </si>
+  <si>
+    <t>csv/json</t>
+  </si>
+  <si>
+    <t>Universität Würzburg/CLiGS</t>
+  </si>
+  <si>
+    <t>giornale/prosa giuridico/saggistica/narrativa/altri</t>
+  </si>
+  <si>
+    <t>trascrizione/audio</t>
+  </si>
+  <si>
+    <t>txt/xml</t>
+  </si>
+  <si>
+    <t>txt/xml/html/xls</t>
+  </si>
+  <si>
+    <t>Firenze/Milano/Roma/Napoli (5 tipi di situazione)</t>
+  </si>
+  <si>
+    <t>spontaneo/suscitato (italiano/spagnolo/inglese)</t>
+  </si>
+  <si>
+    <t>CoNLL/MultiTag</t>
+  </si>
+  <si>
+    <t>giornale/Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed-typical/News/Web/Wikipedia </t>
+  </si>
+  <si>
+    <t>categorie (musica/sport/letteratura…)</t>
+  </si>
+  <si>
+    <t>parlato/scritto</t>
+  </si>
+  <si>
+    <t>TenTen (Sketch Engine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TenTen (Sketch Engine) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jozef Stefan Institute (Slovenia) </t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -728,6 +731,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1046,7 +1050,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,47 +1064,47 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.08984375" customWidth="1"/>
     <col min="9" max="9" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="128.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1111,30 +1115,30 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1146,133 +1150,133 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
         <v>113</v>
       </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1283,33 +1287,33 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1321,27 +1325,27 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1353,27 +1357,27 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1385,24 +1389,24 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1414,27 +1418,27 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>201</v>
-      </c>
-      <c r="L11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1446,30 +1450,30 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1478,10 +1482,10 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
@@ -1490,18 +1494,18 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1513,27 +1517,27 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1545,19 +1549,19 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
         <v>194</v>
@@ -1565,7 +1569,7 @@
       <c r="K15" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1574,33 +1578,33 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1609,33 +1613,33 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1647,30 +1651,30 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1682,30 +1686,30 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1717,30 +1721,30 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1758,21 +1762,21 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1784,30 +1788,30 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1825,27 +1829,27 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1854,7 +1858,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1863,24 +1867,24 @@
         <v>2010</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1898,24 +1902,24 @@
         <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1927,69 +1931,69 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D26" s="1">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" t="s">
-        <v>189</v>
-      </c>
-      <c r="K27" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2006,61 +2010,61 @@
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{E1F8BD6D-525F-4B2B-A1F0-BC45DC59B2F7}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{D185C112-5D51-4150-A3B3-8E2ABF8B6DD6}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{7ECAF134-16DD-46C2-AEE4-8B2A024F2D5F}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{CFEA4B10-E0D9-4CCD-8BC3-208D2E079A58}"/>
-    <hyperlink ref="L7" r:id="rId5" xr:uid="{92407554-E7CC-4D73-9E39-FC143E456B6B}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{05070672-A3A2-4DBB-9A1A-DF11D38249CE}"/>
-    <hyperlink ref="L9" r:id="rId7" xr:uid="{A9783115-3A79-456A-9A3C-637D7CD41A5A}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{50713B56-EC19-47C7-BA52-4076B26ECBA9}"/>
-    <hyperlink ref="L11" r:id="rId9" xr:uid="{5A61EFBE-7705-429A-B6D1-D7DBD8719FB8}"/>
-    <hyperlink ref="L12" r:id="rId10" xr:uid="{62E8EF23-D29B-4155-9D5D-E31BFF9EACA8}"/>
-    <hyperlink ref="L13" r:id="rId11" xr:uid="{D2CCB483-1935-4069-A250-2EBC1080AA18}"/>
-    <hyperlink ref="L14" r:id="rId12" xr:uid="{B44879E2-014B-46E8-B1A3-BBAAE03C0082}"/>
-    <hyperlink ref="L16" r:id="rId13" xr:uid="{22F769DF-9FE9-4417-8450-B0F22DDCA987}"/>
-    <hyperlink ref="L17" r:id="rId14" xr:uid="{4450FDF8-AC33-44D1-B64A-D083BF94F80E}"/>
-    <hyperlink ref="L15" r:id="rId15" xr:uid="{10CC3373-D6EF-4AC7-9903-C040250C6236}"/>
-    <hyperlink ref="L18" r:id="rId16" xr:uid="{F10551EF-2BB2-44A2-AE75-6BB27E78E2E2}"/>
-    <hyperlink ref="L19" r:id="rId17" xr:uid="{6CB6E5E6-20D6-4D6C-815F-2475A4608EC6}"/>
-    <hyperlink ref="L20" r:id="rId18" xr:uid="{07E680CB-D26B-4A98-ACE3-B20F466E2029}"/>
-    <hyperlink ref="L21" r:id="rId19" xr:uid="{CC8867AA-DE93-4661-A426-8AF14DB4B8FD}"/>
-    <hyperlink ref="L22" r:id="rId20" xr:uid="{3F50459C-ADC2-43AF-A71E-3F029A981D89}"/>
-    <hyperlink ref="L24" r:id="rId21" xr:uid="{367C5F82-DA62-44F1-ADE4-5CCD25F0F83D}"/>
-    <hyperlink ref="L23" r:id="rId22" xr:uid="{D4F1407C-9A7E-45A4-9835-6B82D957B399}"/>
-    <hyperlink ref="L25" r:id="rId23" xr:uid="{0C8A4B97-E82B-493A-9F93-4A68D11FAC0F}"/>
-    <hyperlink ref="L27" r:id="rId24" xr:uid="{4391C5F6-91F5-4B70-9344-1613070E741F}"/>
-    <hyperlink ref="L28" r:id="rId25" xr:uid="{4BCDF76F-86DA-48BD-9F6B-37902E458056}"/>
-    <hyperlink ref="L26" r:id="rId26" xr:uid="{87B46F42-CC90-4960-BAB3-533EF6CBF616}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{A2B25571-B64D-4E52-9F31-BC33AA844B7C}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{4748137E-AD0A-4F08-8D15-D45D2083EA2E}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{C36B5AA4-2C5F-4122-86C0-AF8B1A16AC78}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{80AAAB8F-694D-4E37-B23A-5813F1AFD4CF}"/>
+    <hyperlink ref="L8" r:id="rId5" xr:uid="{26CDC0BE-3311-49E5-B663-B910959C23CA}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{134A0E99-5069-45B1-AAEF-D82CCBC63E38}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{EC538E2B-E41A-471C-A75F-C387DA7F33D9}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{EC0D0BE2-643B-4579-AC52-DAEF0C94EEDF}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{62F94940-469C-4601-9569-2B8630A559D8}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{24189CD6-BC3D-469A-A4C7-1A6A2F8D4B8E}"/>
+    <hyperlink ref="L17" r:id="rId11" xr:uid="{222DA730-D35D-418F-A4DE-9B6E6A0DB4D0}"/>
+    <hyperlink ref="L15" r:id="rId12" xr:uid="{6796B25D-DC7F-4F4E-94F1-BA1EC0FD8BC5}"/>
+    <hyperlink ref="L13" r:id="rId13" xr:uid="{E11EC669-AFE6-4B10-AA07-72CE5078CC03}"/>
+    <hyperlink ref="L16" r:id="rId14" xr:uid="{39C5F376-16E9-4A98-89A4-4797FD8EE3F4}"/>
+    <hyperlink ref="L14" r:id="rId15" xr:uid="{A5BC295A-EDB3-4581-88F5-167116038C2B}"/>
+    <hyperlink ref="L19" r:id="rId16" xr:uid="{BAA33260-017E-42CC-9E25-7B89612162F7}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{7C5831FE-FC3B-4B55-895C-3051CFEF90F0}"/>
+    <hyperlink ref="L21" r:id="rId18" xr:uid="{96D909EE-6FB1-4738-9989-08F68AAB909C}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{684F20B5-1ACB-4AAE-9464-8B16FB7C03EF}"/>
+    <hyperlink ref="L23" r:id="rId20" xr:uid="{E2559766-1ED7-449A-9362-9ABE9F8803F8}"/>
+    <hyperlink ref="L27" r:id="rId21" xr:uid="{F88CD51C-7DC9-4841-88EC-DC2ED19967BE}"/>
+    <hyperlink ref="L26" r:id="rId22" xr:uid="{FA3EC510-7608-4B9A-B15A-AA8EFAFB01B9}"/>
+    <hyperlink ref="L25" r:id="rId23" xr:uid="{19CC7D69-442F-4C88-8E63-04E6F6B1A49D}"/>
+    <hyperlink ref="L22" r:id="rId24" xr:uid="{6276F6A0-8D3C-4273-B37A-9FF65B2B649E}"/>
+    <hyperlink ref="L24" r:id="rId25" xr:uid="{A6027A97-251E-4C28-8AD8-60EA7ACDAB53}"/>
+    <hyperlink ref="L28" r:id="rId26" xr:uid="{EC69B4DD-E85F-42AE-A4E8-001D6B544660}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>

--- a/corpora_italiani.xlsx
+++ b/corpora_italiani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elke\Desktop\Uni\Master\Masterarbeit\corpora_italiani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6DDE33-D9B1-4119-B1FA-7D68DC56D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2766E1CD-0758-4883-854E-25EB139E2F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,24 +510,12 @@
     <t>1 milioni frasi per subcorpus</t>
   </si>
   <si>
-    <t>1,5 miliardi token</t>
-  </si>
-  <si>
     <t>Accademiliardi della Crusca</t>
   </si>
   <si>
     <t>2 miliardi token</t>
   </si>
   <si>
-    <t>2,6 miliardi token</t>
-  </si>
-  <si>
-    <t>8,7 miliardi token</t>
-  </si>
-  <si>
-    <t>4,9 miliardi token</t>
-  </si>
-  <si>
     <t>disponibilità</t>
   </si>
   <si>
@@ -655,6 +643,18 @@
   </si>
   <si>
     <t xml:space="preserve">Jozef Stefan Institute (Slovenia) </t>
+  </si>
+  <si>
+    <t>1.5 miliardi token</t>
+  </si>
+  <si>
+    <t>2.6 miliardi token</t>
+  </si>
+  <si>
+    <t>8.7 miliardi token</t>
+  </si>
+  <si>
+    <t>4.9 miliardi token</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1071,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>128</v>
@@ -1086,25 +1086,25 @@
         <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1127,13 +1127,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
         <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -1162,16 +1162,16 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
@@ -1197,16 +1197,16 @@
         <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
         <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K4" t="s">
         <v>107</v>
@@ -1235,13 +1235,13 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
         <v>94</v>
@@ -1264,13 +1264,13 @@
         <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
         <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" t="s">
         <v>123</v>
@@ -1287,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -1299,16 +1299,16 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
         <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1334,13 +1334,13 @@
         <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
         <v>90</v>
@@ -1366,13 +1366,13 @@
         <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -1398,10 +1398,10 @@
         <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
         <v>73</v>
@@ -1427,16 +1427,16 @@
         <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
         <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>76</v>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -1459,19 +1459,19 @@
         <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>15</v>
@@ -1482,10 +1482,10 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
@@ -1494,13 +1494,13 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
@@ -1526,16 +1526,16 @@
         <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
         <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>79</v>
@@ -1555,16 +1555,16 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
         <v>171</v>
-      </c>
-      <c r="G15" t="s">
-        <v>175</v>
       </c>
       <c r="H15" t="s">
         <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K15" t="s">
         <v>91</v>
@@ -1578,10 +1578,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -1593,13 +1593,13 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -1613,10 +1613,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -1660,16 +1660,16 @@
         <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
         <v>51</v>
@@ -1695,16 +1695,16 @@
         <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
@@ -1730,16 +1730,16 @@
         <v>147</v>
       </c>
       <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
         <v>171</v>
-      </c>
-      <c r="G20" t="s">
-        <v>175</v>
       </c>
       <c r="H20" t="s">
         <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
         <v>27</v>
@@ -1762,16 +1762,16 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
         <v>171</v>
       </c>
-      <c r="G21" t="s">
-        <v>175</v>
-      </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
@@ -1788,7 +1788,7 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -1797,16 +1797,16 @@
         <v>157</v>
       </c>
       <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
         <v>171</v>
-      </c>
-      <c r="G22" t="s">
-        <v>175</v>
       </c>
       <c r="H22" t="s">
         <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
         <v>83</v>
@@ -1829,22 +1829,22 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
         <v>60</v>
@@ -1870,16 +1870,16 @@
         <v>156</v>
       </c>
       <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" t="s">
-        <v>175</v>
       </c>
       <c r="H24" t="s">
         <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
         <v>34</v>
@@ -1902,22 +1902,22 @@
         <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>99</v>
@@ -1931,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1">
         <v>2013</v>
@@ -1943,16 +1943,16 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -1975,22 +1975,22 @@
         <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>105</v>
@@ -2010,22 +2010,22 @@
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>99</v>

--- a/corpora_italiani.xlsx
+++ b/corpora_italiani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elke\Desktop\Uni\Master\Masterarbeit\corpora_italiani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2766E1CD-0758-4883-854E-25EB139E2F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C86B5C-B49E-4EB3-9769-1BBB8A96A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15000" yWindow="-7140" windowWidth="13650" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="214">
   <si>
     <t>TLIO</t>
   </si>
@@ -531,9 +531,6 @@
     <t>subcorpora</t>
   </si>
   <si>
-    <t xml:space="preserve">istitutione/progetto </t>
-  </si>
-  <si>
     <t>fonte</t>
   </si>
   <si>
@@ -655,6 +652,30 @@
   </si>
   <si>
     <t>4.9 miliardi token</t>
+  </si>
+  <si>
+    <t>Wikibooks</t>
+  </si>
+  <si>
+    <t>Italian Wikibooks Dataset</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>14718 testi</t>
+  </si>
+  <si>
+    <t>sqlite</t>
+  </si>
+  <si>
+    <t>Dhruvil Dave (Kaggle)</t>
+  </si>
+  <si>
+    <t>istituzione/progetto/persona</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/dhruvildave/wikibooks-dataset</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1071,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1092,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>128</v>
@@ -1101,10 +1122,10 @@
         <v>164</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1127,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
         <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -1162,16 +1183,16 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
         <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
@@ -1197,16 +1218,16 @@
         <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
         <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K4" t="s">
         <v>107</v>
@@ -1235,13 +1256,13 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
         <v>94</v>
@@ -1264,13 +1285,13 @@
         <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
         <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
         <v>123</v>
@@ -1287,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -1299,16 +1320,16 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
         <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1334,13 +1355,13 @@
         <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8" t="s">
         <v>90</v>
@@ -1366,13 +1387,13 @@
         <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -1398,10 +1419,10 @@
         <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
         <v>73</v>
@@ -1427,16 +1448,16 @@
         <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H11" t="s">
         <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>76</v>
@@ -1450,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -1459,16 +1480,16 @@
         <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12" t="s">
         <v>158</v>
@@ -1482,10 +1503,10 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
@@ -1494,13 +1515,13 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
@@ -1526,16 +1547,16 @@
         <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
         <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>79</v>
@@ -1555,16 +1576,16 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
         <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K15" t="s">
         <v>91</v>
@@ -1578,10 +1599,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -1593,13 +1614,13 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -1613,10 +1634,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
@@ -1628,13 +1649,13 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -1660,16 +1681,16 @@
         <v>155</v>
       </c>
       <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
         <v>169</v>
       </c>
-      <c r="G18" t="s">
-        <v>170</v>
-      </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
         <v>51</v>
@@ -1695,16 +1716,16 @@
         <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
         <v>192</v>
-      </c>
-      <c r="J19" t="s">
-        <v>193</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
@@ -1730,16 +1751,16 @@
         <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
         <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
         <v>27</v>
@@ -1765,13 +1786,13 @@
         <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>
@@ -1788,7 +1809,7 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -1797,16 +1818,16 @@
         <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
         <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
         <v>83</v>
@@ -1829,22 +1850,22 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
         <v>60</v>
@@ -1870,16 +1891,16 @@
         <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
         <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
         <v>34</v>
@@ -1902,22 +1923,22 @@
         <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
         <v>169</v>
       </c>
-      <c r="G25" t="s">
-        <v>170</v>
-      </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>99</v>
@@ -1931,7 +1952,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1">
         <v>2013</v>
@@ -1943,16 +1964,16 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -1975,22 +1996,22 @@
         <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" t="s">
         <v>169</v>
       </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>105</v>
@@ -2010,25 +2031,57 @@
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" t="s">
         <v>169</v>
       </c>
-      <c r="G28" t="s">
-        <v>170</v>
-      </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2065,8 +2118,9 @@
     <hyperlink ref="L22" r:id="rId24" xr:uid="{6276F6A0-8D3C-4273-B37A-9FF65B2B649E}"/>
     <hyperlink ref="L24" r:id="rId25" xr:uid="{A6027A97-251E-4C28-8AD8-60EA7ACDAB53}"/>
     <hyperlink ref="L28" r:id="rId26" xr:uid="{EC69B4DD-E85F-42AE-A4E8-001D6B544660}"/>
+    <hyperlink ref="L29" r:id="rId27" xr:uid="{28223509-9F54-44C1-916E-B8962E73C1CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
--- a/corpora_italiani.xlsx
+++ b/corpora_italiani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elke\Desktop\Uni\Master\Masterarbeit\corpora_italiani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA7603-45D2-4C13-A38F-4B213526CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C6907-5734-4446-A368-8AA8A1868F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="225">
   <si>
     <t>TLIO</t>
   </si>
@@ -243,9 +243,6 @@
     <t>https://distantreading.github.io/ELTeC/ita/index.html</t>
   </si>
   <si>
-    <t>COST Action "Distant Reading for European Literary History"</t>
-  </si>
-  <si>
     <t>Corpus of Italian Novels</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>https://www.sketchengine.eu/timestamped-italian-corpus/</t>
   </si>
   <si>
-    <t>Centro Interuniversitario Biblioteca italiana Telematica</t>
-  </si>
-  <si>
     <t>http://www.bibliotecaitaliana.it/catalogo</t>
   </si>
   <si>
@@ -546,9 +540,6 @@
     <t>txt/csv/xlsx/xml</t>
   </si>
   <si>
-    <t>Universität Würzburg/CLiGS</t>
-  </si>
-  <si>
     <t>giornale/prosa giuridico/saggistica/narrativa/altri</t>
   </si>
   <si>
@@ -579,12 +570,6 @@
     <t>parlato/scritto</t>
   </si>
   <si>
-    <t>TenTen (Sketch Engine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TenTen (Sketch Engine) </t>
-  </si>
-  <si>
     <t>1.5 miliardi token</t>
   </si>
   <si>
@@ -612,12 +597,6 @@
     <t>sqlite</t>
   </si>
   <si>
-    <t>Dhruvil Dave (Kaggle)</t>
-  </si>
-  <si>
-    <t>istituzione/progetto/persona</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/dhruvildave/wikibooks-dataset</t>
   </si>
   <si>
@@ -705,13 +684,31 @@
     <t>https://www.sketchengine.eu/itwac-italian-corpus/</t>
   </si>
   <si>
-    <t xml:space="preserve">itWac (Sketch Engine) </t>
-  </si>
-  <si>
-    <t>Jozef Stefan Institute/Slovenia (Sketch Engine)</t>
-  </si>
-  <si>
     <t>giuridico/personale/poesia/narrativa/saggistica/teatro</t>
+  </si>
+  <si>
+    <t>persona/progetto/istituzione</t>
+  </si>
+  <si>
+    <t>Biblioteca italiana/Sapienza Università di Roma</t>
+  </si>
+  <si>
+    <t>CLiGS/Universität Würzburg</t>
+  </si>
+  <si>
+    <t>COST Action (Distant Reading for European Literary History)</t>
+  </si>
+  <si>
+    <t>TenTen/Sketch Engine</t>
+  </si>
+  <si>
+    <t>itWac/Sketch Engine</t>
+  </si>
+  <si>
+    <t>Jozef Stefan Institute(Slovenia)/Sketch Engine</t>
+  </si>
+  <si>
+    <t>Dhruvil Dave/Kaggle</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E34" sqref="E34"/>
+      <selection pane="topRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1156,40 +1153,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1200,25 +1197,25 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -1229,37 +1226,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1270,22 +1267,22 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -1296,66 +1293,66 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1363,28 +1360,28 @@
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>33</v>
@@ -1401,28 +1398,28 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2">
         <v>2013</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
@@ -1436,28 +1433,28 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>33</v>
@@ -1468,37 +1465,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1509,25 +1506,25 @@
         <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>62</v>
@@ -1538,10 +1535,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -1550,13 +1547,13 @@
         <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>33</v>
@@ -1573,22 +1570,22 @@
         <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>68</v>
@@ -1596,109 +1593,109 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -1707,33 +1704,33 @@
         <v>2010</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>53</v>
@@ -1742,33 +1739,33 @@
         <v>2016</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
@@ -1777,33 +1774,33 @@
         <v>2020</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>53</v>
@@ -1812,60 +1809,60 @@
         <v>2006</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1876,25 +1873,25 @@
         <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>50</v>
@@ -1905,34 +1902,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1943,25 +1940,25 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>30</v>
@@ -1978,28 +1975,28 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>14</v>
@@ -2013,28 +2010,28 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>20</v>
@@ -2051,25 +2048,25 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>1</v>
@@ -2083,7 +2080,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
@@ -2092,19 +2089,19 @@
         <v>2010</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>33</v>
@@ -2127,22 +2124,22 @@
         <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>59</v>
@@ -2159,28 +2156,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>1</v>
@@ -2191,39 +2188,39 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D31" s="2">
         <v>2021</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/corpora_italiani.xlsx
+++ b/corpora_italiani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elke\Desktop\Uni\Master\Masterarbeit\corpora_italiani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C6907-5734-4446-A368-8AA8A1868F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3D17D-8C84-4A92-AC5F-69CC3897B4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,9 +642,6 @@
     <t>ca. 300 testi</t>
   </si>
   <si>
-    <t>KWIC (regolabile), testi interi</t>
-  </si>
-  <si>
     <t>testi interi</t>
   </si>
   <si>
@@ -709,6 +706,9 @@
   </si>
   <si>
     <t>Dhruvil Dave/Kaggle</t>
+  </si>
+  <si>
+    <t>KWIC (regolabile)/testi interi</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <selection pane="topRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1183,7 @@
         <v>147</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>148</v>
@@ -1212,7 +1212,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>173</v>
@@ -1253,7 +1253,7 @@
         <v>158</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>99</v>
@@ -1314,10 +1314,10 @@
         <v>156</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>74</v>
@@ -1346,10 +1346,10 @@
         <v>156</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>71</v>
@@ -1413,7 +1413,7 @@
         <v>152</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>166</v>
@@ -1486,7 +1486,7 @@
         <v>153</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>175</v>
@@ -1518,7 +1518,7 @@
         <v>153</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>169</v>
@@ -1585,7 +1585,7 @@
         <v>155</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>68</v>
@@ -1611,16 +1611,16 @@
         <v>149</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>194</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1681,7 +1681,7 @@
         <v>154</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>84</v>
@@ -1719,7 +1719,7 @@
         <v>166</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>92</v>
@@ -1754,7 +1754,7 @@
         <v>166</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>92</v>
@@ -1789,7 +1789,7 @@
         <v>166</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>92</v>
@@ -1824,10 +1824,10 @@
         <v>166</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
         <v>166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>98</v>
@@ -1914,13 +1914,13 @@
         <v>196</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>154</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>160</v>
@@ -2019,19 +2019,19 @@
         <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>152</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>20</v>
@@ -2098,7 +2098,7 @@
         <v>153</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>166</v>
@@ -2212,7 +2212,7 @@
         <v>186</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>187</v>
